--- a/temp_ + Synthetic Anchorage (normal).xlsx
+++ b/temp_ + Synthetic Anchorage (normal).xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Wed Jan 29 11:55:43 2025</t>
+    <t>Sun Feb  9 09:09:13 2025</t>
   </si>
   <si>
-    <t>Wed Jan 29 13:10:25 2025</t>
+    <t>Sun Feb  9 11:20:05 2025</t>
   </si>
 </sst>
 </file>
@@ -359,19 +359,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>452.237594111659</v>
+        <v>479.7588822114419</v>
       </c>
       <c r="B1">
-        <v>1132.759910888641</v>
+        <v>1174.159349296501</v>
       </c>
       <c r="C1">
-        <v>827.3674418604651</v>
+        <v>651.6</v>
       </c>
       <c r="D1">
-        <v>0.6558980593006876</v>
+        <v>0.6759713893799294</v>
       </c>
       <c r="E1">
-        <v>0.02147498759868898</v>
+        <v>0.02837889089611381</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/temp_ + Synthetic Anchorage (normal).xlsx
+++ b/temp_ + Synthetic Anchorage (normal).xlsx
@@ -11,17 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Sun Feb  9 09:09:13 2025</t>
-  </si>
-  <si>
-    <t>Sun Feb  9 11:20:05 2025</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -359,27 +348,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>479.7588822114419</v>
+        <v>428.8282711473836</v>
       </c>
       <c r="B1">
-        <v>1174.159349296501</v>
+        <v>1081.211645397122</v>
       </c>
       <c r="C1">
-        <v>651.6</v>
+        <v>668.7316455696202</v>
       </c>
       <c r="D1">
-        <v>0.6759713893799294</v>
+        <v>0.6785269340598813</v>
       </c>
       <c r="E1">
-        <v>0.02837889089611381</v>
+        <v>0.02477793017925824</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>639.3464047101381</v>
+      </c>
+      <c r="B2">
+        <v>1220.744935544521</v>
+      </c>
+      <c r="C2">
+        <v>680.5872641509434</v>
+      </c>
+      <c r="D2">
+        <v>0.6627983017759678</v>
+      </c>
+      <c r="E2">
+        <v>0.02874891756845089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>648.4771576401105</v>
+      </c>
+      <c r="B3">
+        <v>1176.634068640585</v>
+      </c>
+      <c r="C3">
+        <v>715.3183962264151</v>
+      </c>
+      <c r="D3">
+        <v>0.680477651899835</v>
+      </c>
+      <c r="E3">
+        <v>0.02773573489420796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>732.7397069928282</v>
+      </c>
+      <c r="B4">
+        <v>1327.978642750103</v>
+      </c>
+      <c r="C4">
+        <v>793.2921914357682</v>
+      </c>
+      <c r="D4">
+        <v>0.6961505071334508</v>
+      </c>
+      <c r="E4">
+        <v>0.02229462016179936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>644.6143482690236</v>
+      </c>
+      <c r="B5">
+        <v>1209.54080774357</v>
+      </c>
+      <c r="C5">
+        <v>759.8508557457212</v>
+      </c>
+      <c r="D5">
+        <v>0.66843617690456</v>
+      </c>
+      <c r="E5">
+        <v>0.02423596236055406</v>
       </c>
     </row>
   </sheetData>

--- a/temp_ + Synthetic Anchorage (normal).xlsx
+++ b/temp_ + Synthetic Anchorage (normal).xlsx
@@ -348,87 +348,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>428.8282711473836</v>
+        <v>684.8759323715749</v>
       </c>
       <c r="B1">
-        <v>1081.211645397122</v>
+        <v>1256.813532278499</v>
       </c>
       <c r="C1">
-        <v>668.7316455696202</v>
+        <v>700.1542288557214</v>
       </c>
       <c r="D1">
-        <v>0.6785269340598813</v>
+        <v>0.6775552003459621</v>
       </c>
       <c r="E1">
-        <v>0.02477793017925824</v>
+        <v>0.0295656084345239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>639.3464047101381</v>
+        <v>598.0867599604255</v>
       </c>
       <c r="B2">
-        <v>1220.744935544521</v>
+        <v>1121.329461583958</v>
       </c>
       <c r="C2">
-        <v>680.5872641509434</v>
+        <v>629.2148337595908</v>
       </c>
       <c r="D2">
-        <v>0.6627983017759678</v>
+        <v>0.6864415640327465</v>
       </c>
       <c r="E2">
-        <v>0.02874891756845089</v>
+        <v>0.02551828860794789</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>648.4771576401105</v>
+        <v>753.8786161443975</v>
       </c>
       <c r="B3">
-        <v>1176.634068640585</v>
+        <v>1368.925274103422</v>
       </c>
       <c r="C3">
-        <v>715.3183962264151</v>
+        <v>701.3088235294117</v>
       </c>
       <c r="D3">
-        <v>0.680477651899835</v>
+        <v>0.6730294879940311</v>
       </c>
       <c r="E3">
-        <v>0.02773573489420796</v>
+        <v>0.02726779246866659</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>732.7397069928282</v>
+        <v>666.228541531591</v>
       </c>
       <c r="B4">
-        <v>1327.978642750103</v>
+        <v>1239.113902659839</v>
       </c>
       <c r="C4">
-        <v>793.2921914357682</v>
+        <v>704.4449648711944</v>
       </c>
       <c r="D4">
-        <v>0.6961505071334508</v>
+        <v>0.6843888376905528</v>
       </c>
       <c r="E4">
-        <v>0.02229462016179936</v>
+        <v>0.02492022919405106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>644.6143482690236</v>
+        <v>635.8011772562966</v>
       </c>
       <c r="B5">
-        <v>1209.54080774357</v>
+        <v>1235.030448675421</v>
       </c>
       <c r="C5">
-        <v>759.8508557457212</v>
+        <v>516.4825</v>
       </c>
       <c r="D5">
-        <v>0.66843617690456</v>
+        <v>0.6699840138666501</v>
       </c>
       <c r="E5">
-        <v>0.02423596236055406</v>
+        <v>0.03208687168177065</v>
       </c>
     </row>
   </sheetData>

--- a/temp_ + Synthetic Anchorage (normal).xlsx
+++ b/temp_ + Synthetic Anchorage (normal).xlsx
@@ -348,87 +348,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>684.8759323715749</v>
+        <v>760.0427490130503</v>
       </c>
       <c r="B1">
-        <v>1256.813532278499</v>
+        <v>1414.857171981394</v>
       </c>
       <c r="C1">
-        <v>700.1542288557214</v>
+        <v>762.4768041237113</v>
       </c>
       <c r="D1">
-        <v>0.6775552003459621</v>
+        <v>0.6710545586163158</v>
       </c>
       <c r="E1">
-        <v>0.0295656084345239</v>
+        <v>0.02521363368294391</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>598.0867599604255</v>
+        <v>664.7707850644877</v>
       </c>
       <c r="B2">
-        <v>1121.329461583958</v>
+        <v>1345.940762495828</v>
       </c>
       <c r="C2">
-        <v>629.2148337595908</v>
+        <v>836.4247572815534</v>
       </c>
       <c r="D2">
-        <v>0.6864415640327465</v>
+        <v>0.673846514354816</v>
       </c>
       <c r="E2">
-        <v>0.02551828860794789</v>
+        <v>0.02243461008452657</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>753.8786161443975</v>
+        <v>671.0516630584766</v>
       </c>
       <c r="B3">
-        <v>1368.925274103422</v>
+        <v>1311.219735409139</v>
       </c>
       <c r="C3">
-        <v>701.3088235294117</v>
+        <v>670.6298200514138</v>
       </c>
       <c r="D3">
-        <v>0.6730294879940311</v>
+        <v>0.6610042291494997</v>
       </c>
       <c r="E3">
-        <v>0.02726779246866659</v>
+        <v>0.02941911681351816</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>666.228541531591</v>
+        <v>794.1333793725711</v>
       </c>
       <c r="B4">
-        <v>1239.113902659839</v>
+        <v>1534.142926338558</v>
       </c>
       <c r="C4">
-        <v>704.4449648711944</v>
+        <v>802.3542713567839</v>
       </c>
       <c r="D4">
-        <v>0.6843888376905528</v>
+        <v>0.6647923066827233</v>
       </c>
       <c r="E4">
-        <v>0.02492022919405106</v>
+        <v>0.01954703336469075</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>635.8011772562966</v>
+        <v>639.4432043850668</v>
       </c>
       <c r="B5">
-        <v>1235.030448675421</v>
+        <v>1286.876193257912</v>
       </c>
       <c r="C5">
-        <v>516.4825</v>
+        <v>985.2890442890443</v>
       </c>
       <c r="D5">
-        <v>0.6699840138666501</v>
+        <v>0.675020559725789</v>
       </c>
       <c r="E5">
-        <v>0.03208687168177065</v>
+        <v>0.02712089530723252</v>
       </c>
     </row>
   </sheetData>
